--- a/Budget sheet.xlsx
+++ b/Budget sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi Kant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B23FD3C-AE3C-4D00-862F-B1180FF8109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B659F0-CD4F-4F74-A0B8-A47D36932D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1776,7 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1797,9 +1797,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,6 +1946,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2018,24 +2036,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2060,6 +2081,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2162,6 +2192,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2180,7 +2216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2194,33 +2230,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,6 +2238,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2574,13 +2588,13 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="23" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="36.1796875" customWidth="1"/>
@@ -2595,288 +2609,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="120">
+      <c r="B5" s="130">
         <v>46058</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="147"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="159"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="138"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
       <c r="I8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="138"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="150"/>
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="103" t="str">
+      <c r="C9" s="113" t="str">
         <f>IF(C8="Online", "Online", "IIM Sirmaur")</f>
         <v>IIM Sirmaur</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="I9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="138"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="147">
         <v>5</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="138"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="110">
         <v>30</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="138"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="110">
         <v>20</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
     </row>
     <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="138"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="68">
-        <v>0</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="143"/>
+      <c r="C13" s="73">
+        <v>10</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="155"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="138"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="147">
         <v>250000</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
     </row>
     <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="138"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="150"/>
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="145"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="157"/>
     </row>
     <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="138"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="150"/>
+      <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
     </row>
     <row r="17" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="138"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="150"/>
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="145"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="157"/>
     </row>
     <row r="18" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="139"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="151"/>
+      <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:16" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="28">
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="27">
         <f>C14*C10</f>
         <v>1250000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="71">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="64" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="32">
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="31">
         <f>18%*E20</f>
         <v>225000</v>
       </c>
@@ -2884,564 +2898,564 @@
         <f>F20*0.18</f>
         <v>0</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="39"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="40">
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="39">
         <f>SUM(E20:E21)</f>
         <v>1475000</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="49">
         <f>SUM(F20:F20)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="38"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="28">
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="27">
         <f>0.25*E20</f>
         <v>312500</v>
       </c>
-      <c r="F24" s="11">
-        <f>F22*0.25</f>
+      <c r="F24" s="10">
+        <f>$F$20*0.25</f>
         <v>0</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="32">
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="31">
         <f>0.05*E20</f>
         <v>62500</v>
       </c>
-      <c r="F25" s="32">
-        <f>0.05*F20</f>
+      <c r="F25" s="31">
+        <f>0.05*$F$20</f>
         <v>0</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="36"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="56">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="55">
         <f>E24+E25</f>
         <v>375000</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="55">
         <f>F24+F25</f>
         <v>0</v>
       </c>
-      <c r="G26" s="38"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:16" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="45"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="28">
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="27">
         <f>5000*$C$10</f>
         <v>25000</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <f>5000*$C$10</f>
         <v>25000</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
+      <c r="G28" s="45"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="28">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="27">
         <f>1900*$C$12*($C$10+1)</f>
         <v>228000</v>
       </c>
-      <c r="F29" s="28">
-        <f>1900*$C$12*($C$10+1)</f>
-        <v>228000</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="F29" s="27">
+        <f>1900*$C$13*($C$10+1)</f>
+        <v>114000</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="28">
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="27">
         <f>$C$10*2000</f>
         <v>10000</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <f>$C$10*2000</f>
         <v>10000</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
+      <c r="G30" s="53"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="28">
-        <f>300*C12*6</f>
-        <v>36000</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="27">
+        <f>800*C12*6</f>
+        <v>96000</v>
+      </c>
+      <c r="F31" s="10">
         <v>0</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
+      <c r="G31" s="53"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="28">
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="27">
         <v>3000</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>0</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
+      <c r="G32" s="54"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="28">
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="27">
         <v>10000</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>0</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="28">
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="27">
         <v>40000</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>0</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="63" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="28">
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="27">
         <v>30000</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>0</v>
       </c>
-      <c r="G35" s="48"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="5"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="28">
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="27">
         <v>0</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="43">
         <v>0</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="28">
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="27">
         <v>0</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="43">
         <v>0</v>
       </c>
-      <c r="G37" s="47"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="28">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="27">
         <v>4000</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f>500*0</f>
         <v>0</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="28">
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="29">
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="28">
         <v>24000</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="70">
         <v>0</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="58"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="57">
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="56">
         <f>SUM(E28:E40)</f>
-        <v>410000</v>
-      </c>
-      <c r="F41" s="57">
+        <v>470000</v>
+      </c>
+      <c r="F41" s="56">
         <f>SUM(F28:F40)</f>
-        <v>263000</v>
-      </c>
-      <c r="G41" s="59"/>
+        <v>149000</v>
+      </c>
+      <c r="G41" s="58"/>
     </row>
     <row r="42" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="55"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="28">
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="27">
         <f>E20-E26-E41</f>
-        <v>465000</v>
-      </c>
-      <c r="F43" s="28">
+        <v>405000</v>
+      </c>
+      <c r="F43" s="27">
         <f>F20-F26-F41</f>
-        <v>-263000</v>
-      </c>
-      <c r="G43" s="46"/>
+        <v>-149000</v>
+      </c>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="28">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="27">
         <v>3000</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="27">
         <v>3000</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="28">
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="27">
         <f>7500*$C$10</f>
         <v>37500</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <f>7500*$C$10</f>
         <v>37500</v>
       </c>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="28">
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="27">
         <f>7500*$C$11</f>
         <v>225000</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <f>7500*$C$11</f>
         <v>225000</v>
       </c>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="151">
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="66">
         <v>10000</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="34">
         <v>0</v>
       </c>
-      <c r="G47" s="150"/>
+      <c r="G47" s="65"/>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="154" t="s">
+      <c r="B48" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="152">
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="67">
         <f>E43-E44-E45-E46-E47</f>
-        <v>189500</v>
-      </c>
-      <c r="F48" s="153">
+        <v>129500</v>
+      </c>
+      <c r="F48" s="68">
         <f>F43-F45-F46</f>
-        <v>-525500</v>
-      </c>
-      <c r="G48" s="49"/>
+        <v>-411500</v>
+      </c>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="92"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="98"/>
     </row>
     <row r="50" spans="1:7" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="92"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="98"/>
     </row>
     <row r="51" spans="1:7" ht="81" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="129" t="s">
+      <c r="A51" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="126" t="s">
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="127"/>
-      <c r="G51" s="128"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="138"/>
     </row>
     <row r="52" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="132" t="s">
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="134"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="144"/>
     </row>
     <row r="55" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="25"/>
+      <c r="B55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="25"/>
+      <c r="B56" s="24"/>
     </row>
     <row r="57" spans="1:7" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="B57" s="26"/>
+      <c r="B57" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="55">
